--- a/数据整理/stocks/A股/深证主板/002517-恺英网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002517-恺英网络.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -925,7 +926,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,17 +937,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -956,13 +977,293 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002517-恺英网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002517-恺英网络.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1210,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,17 +1222,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1241,14 +1262,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.59</v>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1257,13 +1300,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>11</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002517-恺英网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002517-恺英网络.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001628</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>招商体育文化休闲股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2495</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>159869</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="4">
@@ -580,340 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>516010</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>98.82</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1460</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001637</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1134</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011231</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>光大保德信锦弘混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0463</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>516770</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证动漫游戏ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>96.70</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0382</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009726</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>招商中证500等权重指数增强A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0372</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001242</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001243</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时中证淘金大数据100指数I</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011232</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>光大保德信锦弘混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>21.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009727</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商中证500等权重指数增强C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.35</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.86</v>
       </c>
     </row>
   </sheetData>
@@ -922,6 +532,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,13 +985,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1262,36 +1042,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159869</t>
+          <t>001628</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏中证动漫游戏ETF</t>
+          <t>招商体育文化休闲股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.48</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.81</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2534</t>
+          <t>0.2495</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1300,36 +1080,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>516010</t>
+          <t>159869</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰中证动漫游戏ETF</t>
+          <t>华夏中证动漫游戏ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>97.74</t>
+          <t>97.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1769</t>
+          <t>0.1498</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1338,120 +1118,340 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1134</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>516770</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>华泰柏瑞中证动漫游戏ETF</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0457</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.86</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002517-恺英网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002517-恺英网络.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.48</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>11</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -532,6 +549,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004809</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>015667</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015395</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005935</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -701,7 +1306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -985,7 +1590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002517-恺英网络.xlsx
+++ b/数据整理/stocks/A股/深证主板/002517-恺英网络.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>1.04</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.48</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.59</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.86</v>
       </c>
     </row>
@@ -549,6 +566,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159869</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2317</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005585</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161036</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015667</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银河文体娱乐主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>517500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证沪港深动漫游戏ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>015395</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014246</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014256</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证娱乐主题指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014247</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1136,7 +1779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1306,7 +1949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1590,7 +2233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
